--- a/Методы и средства криптографической защ инф/Лаба 2/Лаба 2.xlsx
+++ b/Методы и средства криптографической защ инф/Лаба 2/Лаба 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForMi\OneDrive\Desktop\Fourth_course\Методы и средства криптографической защ инф\Лаба 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2BE31-29D2-40C5-AD93-75BBE227B597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F2218-87C3-4A28-ADDE-C87371CEDA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B8459DC6-B47A-44D9-8C4F-B46616E9EDDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8459DC6-B47A-44D9-8C4F-B46616E9EDDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Цезаря" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,61 +231,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -740,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DA4A81-55F3-481A-A438-E457AE834B17}">
   <dimension ref="B2:AI10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
@@ -773,117 +743,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AI3" s="5">
@@ -891,180 +861,180 @@
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AI4" s="5"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1082,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE566223-60A0-4B00-B1B1-5542EDD82243}">
   <dimension ref="B2:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,437 +1062,437 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="L2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <f>B3+1</f>
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:AH3" si="0">C3+1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AG4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI4" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="AI4" s="7"/>
     </row>
     <row r="5" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AB5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AD5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AG5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AH5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AI5" s="9"/>
+      <c r="AI5" s="7"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B10:AH10"/>
     <mergeCell ref="B7:AH7"/>
-    <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="AI3:AI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
